--- a/datasets/ToySpreadsheet.xlsx
+++ b/datasets/ToySpreadsheet.xlsx
@@ -30,9 +30,6 @@
     <t>Raw</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Andromeda</t>
   </si>
   <si>
-    <t>PEPTIDE</t>
-  </si>
-  <si>
     <t>Intensity</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>1985-04-06_0123_GA_T_R4</t>
+  </si>
+  <si>
+    <t>CCUGAACCCACUAUUGAUGAG</t>
+  </si>
+  <si>
+    <t>RNA</t>
   </si>
 </sst>
 </file>
@@ -82,13 +82,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,9 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,51 +405,51 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>142.29486255067607</v>
@@ -451,18 +459,18 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>72.714404784236308</v>
@@ -472,18 +480,18 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>133.49334961283913</v>
@@ -493,18 +501,18 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>62.007903540331533</v>
@@ -514,18 +522,18 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>112.64384197882998</v>
@@ -535,18 +543,18 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>116.57024929303401</v>
@@ -556,18 +564,18 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -575,18 +583,18 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>64.983534439630859</v>
@@ -596,18 +604,18 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="1">
         <v>97.934918971619453</v>
@@ -617,18 +625,18 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <v>93.601301186034021</v>
@@ -638,18 +646,18 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E12" s="1">
         <v>84.169260350905859</v>
@@ -659,18 +667,18 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>144.01978050476021</v>
@@ -680,10 +688,11 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>